--- a/data/match_result/SCAN000702-1/final.xlsx
+++ b/data/match_result/SCAN000702-1/final.xlsx
@@ -43,7 +43,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7.2238</t>
+    <t>3.2107</t>
   </si>
   <si>
     <t>225</t>
@@ -52,169 +52,169 @@
     <t>2</t>
   </si>
   <si>
-    <t>6.6986</t>
+    <t>3.1159</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.9229</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.9177</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6.5568</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6.4627</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.8979</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2.8928</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6.4279</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6.4141</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2.8574</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6.3017</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2.8381</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2.8297</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2.8048</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.7997</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2.7943</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.7789</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.7533</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2.7027</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2.6230</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6.1785</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6.1543</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6.1071</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6.0671</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5.9932</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5.9469</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5.9310</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>5.8734</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5.8420</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>5.8099</t>
+    <t>2.6039</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2.5975</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.5958</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>5.7952</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>5.7903</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>5.7181</t>
-  </si>
-  <si>
-    <t>247</t>
+    <t>2.5957</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
 </sst>
 </file>
@@ -613,13 +613,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -636,8 +636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="3173389"/>
-          <a:ext cx="2381250" cy="1258153"/>
+          <a:off x="11334750" y="2724150"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,7 +807,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>2083020</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -827,7 +827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="5257800"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:ext cx="2083020" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,13 +993,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="8106364"/>
-          <a:ext cx="2381250" cy="1593964"/>
+          <a:off x="11334750" y="8240689"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158212</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2143932</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1396,8 +1396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="13016962"/>
-          <a:ext cx="2381250" cy="1985720"/>
+          <a:off x="11334750" y="13173664"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,13 +1563,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>158212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2143932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,8 +1586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="15392400"/>
-          <a:ext cx="2057148" cy="2381250"/>
+          <a:off x="11334750" y="15550612"/>
+          <a:ext cx="2381250" cy="1985720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,7 +1655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1753,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,8 +1776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="18122199"/>
-          <a:ext cx="2381250" cy="1890877"/>
+          <a:off x="11334750" y="17926050"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1943,13 +1943,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1966,8 +1966,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="20459700"/>
-          <a:ext cx="1665672" cy="2381250"/>
+          <a:off x="11334750" y="20655849"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2137,7 +2137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>1529452</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="22993350"/>
-          <a:ext cx="1864787" cy="2381250"/>
+          <a:ext cx="1529452" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2339,7 +2339,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2415,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2513,13 +2513,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>254661</xdr:rowOff>
+      <xdr:rowOff>282126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1999258</xdr:rowOff>
+      <xdr:rowOff>1958060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,15 +2529,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="28315311"/>
-          <a:ext cx="2381250" cy="1744596"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="28342776"/>
+          <a:ext cx="2381250" cy="1675934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2703,13 +2703,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>282126</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2219122</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1958060</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,15 +2719,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="30876426"/>
-          <a:ext cx="2381250" cy="1675934"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30594300"/>
+          <a:ext cx="2219122" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2897,7 +2897,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2219122</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2917,7 +2917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="33127950"/>
-          <a:ext cx="2219122" cy="2381250"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3083,13 +3083,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>312590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>1912365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,8 +3106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="36148092"/>
-          <a:ext cx="2381250" cy="1165020"/>
+          <a:off x="11334750" y="35974190"/>
+          <a:ext cx="2381250" cy="1599774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3277,7 +3277,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2083020</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3297,7 +3297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="38195250"/>
-          <a:ext cx="2083020" cy="2381250"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3463,13 +3463,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1537690</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2161442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3486,8 +3486,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="40728900"/>
-          <a:ext cx="1537690" cy="2381250"/>
+          <a:off x="11334750" y="40875438"/>
+          <a:ext cx="2381250" cy="2014904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3653,13 +3653,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>118284</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2203824</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3676,8 +3676,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="43380834"/>
-          <a:ext cx="2381250" cy="2085539"/>
+          <a:off x="11334750" y="43262550"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3745,7 +3745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3783,7 +3783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3821,7 +3821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3847,7 +3847,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1529452</xdr:colOff>
+      <xdr:colOff>1537690</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3859,7 +3859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3867,7 +3867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="45796200"/>
-          <a:ext cx="1529452" cy="2381250"/>
+          <a:ext cx="1537690" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4033,13 +4033,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1622079</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2258786</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4056,8 +4056,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="48411493"/>
-          <a:ext cx="2381250" cy="2177143"/>
+          <a:off x="11334750" y="48329850"/>
+          <a:ext cx="1622079" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4558,29 +4558,29 @@
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="200" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="200" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="200" customHeight="1">
